--- a/excelTemplate/OverdueSearchAdminTemplate.xlsx
+++ b/excelTemplate/OverdueSearchAdminTemplate.xlsx
@@ -227,10 +227,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;%=rs1.invoice_vessel_ata%&gt;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;%=rs1.invoice_masterbi_demurrage_party%&gt;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -268,6 +264,10 @@
   </si>
   <si>
     <t>&lt;%=rs1.invoice_containers_depot_name%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.discharge_date%&gt;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -444,17 +444,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -790,58 +790,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="20" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="20" t="s">
+      <c r="J1" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="20"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="22"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="16" t="s">
         <v>34</v>
       </c>
@@ -881,44 +881,39 @@
         <v>41</v>
       </c>
       <c r="G3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="I3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="J3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>45</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>25</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N3" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="P3" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:I2"/>
   <mergeCells count="12">
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="I1:I2"/>
@@ -926,6 +921,11 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
